--- a/NVGenerado.xlsx
+++ b/NVGenerado.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,8 +46,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,15 +67,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +474,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -515,6 +545,7 @@
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
+      <c r="M1" s="2" t="n"/>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Cota B</t>
@@ -522,50 +553,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1.55</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4" t="n">
         <v>89.67361111111111</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="5" t="n">
         <v>4.001</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>3.893</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="5" t="n">
         <v>3.785</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4" t="n">
         <v>19.37951628536907</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4" t="n">
         <v>6.559870449108527</v>
       </c>
-      <c r="N2" t="n">
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n">
         <v>854.2168704491085</v>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Constantes</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="P3" t="n">
+      <c r="P3" s="6" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4">
-      <c r="P4" t="n">
+      <c r="P4" s="6" t="n">
         <v>90</v>
       </c>
     </row>
